--- a/Sprint3_Backlog(1).xlsx
+++ b/Sprint3_Backlog(1).xlsx
@@ -514,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -998,59 +998,49 @@
         <v>33</v>
       </c>
     </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>3.4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" t="s">
+        <v>46</v>
+      </c>
+    </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>3.4</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="D34" s="3"/>
+        <v>3.5</v>
+      </c>
+      <c r="B34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>3.5</v>
-      </c>
       <c r="B35" s="2"/>
       <c r="D35" s="3"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>3.6</v>
-      </c>
-      <c r="B37" t="s">
-        <v>30</v>
-      </c>
-      <c r="C37">
-        <v>3</v>
-      </c>
-      <c r="D37" t="s">
-        <v>42</v>
-      </c>
-      <c r="E37" t="s">
-        <v>45</v>
-      </c>
-      <c r="F37" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>3.7</v>
-      </c>
-      <c r="B38" t="s">
-        <v>31</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38" t="s">
-        <v>42</v>
-      </c>
-      <c r="E38" t="s">
-        <v>45</v>
-      </c>
-      <c r="F38" t="s">
-        <v>46</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
